--- a/BalanceSheet/ANTM_bal.xlsx
+++ b/BalanceSheet/ANTM_bal.xlsx
@@ -4463,7 +4463,7 @@
         <v>-4387000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-5755000000.0</v>
+        <v>-6237000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>-7405000000.0</v>
@@ -4590,7 +4590,7 @@
         <v>21409000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>19867000000.0</v>
+        <v>19385000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>19520000000.0</v>
